--- a/dataset/notice-database.xlsx
+++ b/dataset/notice-database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Notice5</t>
+  </si>
+  <si>
+    <t>5th test Notice</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +111,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +510,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45915</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
